--- a/biology/Botanique/Forêts_des_Muskwa_et_du_Lac_des_Esclaves/Forêts_des_Muskwa_et_du_Lac_des_Esclaves.xlsx
+++ b/biology/Botanique/Forêts_des_Muskwa_et_du_Lac_des_Esclaves/Forêts_des_Muskwa_et_du_Lac_des_Esclaves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_Muskwa_et_du_Lac_des_Esclaves</t>
+          <t>Forêts_des_Muskwa_et_du_Lac_des_Esclaves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts des Muskwa et du Lac des Esclaves forment une écorégion terrestre nord-américaine du type forêts boréales, taïga du World Wildlife Fund[1], qui s'étend de la chaîne des Muskwa (en) dans les Rocheuses jusqu'à la rive occidentale du Grand Lac des Esclaves.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts des Muskwa et du Lac des Esclaves forment une écorégion terrestre nord-américaine du type forêts boréales, taïga du World Wildlife Fund, qui s'étend de la chaîne des Muskwa (en) dans les Rocheuses jusqu'à la rive occidentale du Grand Lac des Esclaves.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_Muskwa_et_du_Lac_des_Esclaves</t>
+          <t>Forêts_des_Muskwa_et_du_Lac_des_Esclaves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts des Muskwa et du Lac des Esclaves recouvrent le nord-est de la Colombie-Britannique, le nord-ouest de l'Alberta et la vallée de la rivière Mackenzie dans le sud-ouest des Territoires du Nord-Ouest[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts des Muskwa et du Lac des Esclaves recouvrent le nord-est de la Colombie-Britannique, le nord-ouest de l'Alberta et la vallée de la rivière Mackenzie dans le sud-ouest des Territoires du Nord-Ouest. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_Muskwa_et_du_Lac_des_Esclaves</t>
+          <t>Forêts_des_Muskwa_et_du_Lac_des_Esclaves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La température moyenne annuelle varie entre −2 °C et −6,5 °C.  La température hivernale moyenne varie entre −18 °C et −24,5 °C alors que la température moyenne estivale est d'environ 12,5 °C.  Le taux de précipitations annuel se situe entre 250 mm et 500 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La température moyenne annuelle varie entre −2 °C et −6,5 °C.  La température hivernale moyenne varie entre −18 °C et −24,5 °C alors que la température moyenne estivale est d'environ 12,5 °C.  Le taux de précipitations annuel se situe entre 250 mm et 500 mm.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_Muskwa_et_du_Lac_des_Esclaves</t>
+          <t>Forêts_des_Muskwa_et_du_Lac_des_Esclaves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Caractéristiques biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorégion est composée principalement de peupliers faux-trembles, d'épinettes blanches et de sapins baumiers avec, en moindre proportion, des peupliers baumiers et des épinettes noires. Cette écorégion abrite une importante population de bisons[1].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorégion est composée principalement de peupliers faux-trembles, d'épinettes blanches et de sapins baumiers avec, en moindre proportion, des peupliers baumiers et des épinettes noires. Cette écorégion abrite une importante population de bisons.  
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_Muskwa_et_du_Lac_des_Esclaves</t>
+          <t>Forêts_des_Muskwa_et_du_Lac_des_Esclaves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On estime qu'environ 75 % de cette écorégion est toujours intacte.  Les principales causes de perturbation sont l'exploitation forestière, les lignes sismiques et les passages de pipe-lines[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On estime qu'environ 75 % de cette écorégion est toujours intacte.  Les principales causes de perturbation sont l'exploitation forestière, les lignes sismiques et les passages de pipe-lines.
 </t>
         </is>
       </c>
